--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46972.28810387996</v>
+        <v>45084.7065874777</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>281.5082707706964</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>15.80210689896973</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>178.624424363493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8086284801606</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>185.6425509600069</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>203.7839120701168</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.63122185700602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>41.65908664969436</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>157.7357262271245</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>228.78333020037</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>46.625848748998</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.3227969010357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113162</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>100.1895811349082</v>
       </c>
       <c r="T13" t="n">
-        <v>190.7955476484025</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>254.4736925192385</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>234.6198571973168</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>67.84317158411666</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>179.0889667773396</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>141.0915393486723</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>24.32276211751079</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>145.5074392166372</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>23.54872654977552</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>215.7053919670788</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>18.66111384519368</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965517</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523564</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,19 +3004,19 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>141.4025157566411</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898879</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373612</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.941371236149</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1229.941371236149</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.941371236149</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>818.9554664465411</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.187366877849</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2681.187366877849</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2681.187366877849</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2681.187366877849</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2328.418711607735</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>547.7002727281584</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X4" t="n">
-        <v>552.4407231609042</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.4407231609042</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.641263708175</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.678746767763</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.678746767763</v>
+        <v>1088.735030136145</v>
       </c>
       <c r="E5" t="n">
-        <v>812.8904941695191</v>
+        <v>1088.735030136145</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>677.749125346538</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>259.7853172447249</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748109</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748109</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.241103772297</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>141.6793917579719</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>141.6793917579719</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>141.6793917579719</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005477</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005477</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>245.4549451025304</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.4549451025304</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1369.416431066817</v>
+        <v>1189.50268270914</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.416431066817</v>
+        <v>1189.50268270914</v>
       </c>
       <c r="D8" t="n">
-        <v>1369.416431066817</v>
+        <v>831.2369841023892</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>445.448731504145</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>438.5032307549415</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.416431066817</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>352.67413830922</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>352.67413830922</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>352.67413830922</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805454</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,25 +5051,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,28 +5106,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N12" t="n">
         <v>1528.62340110598</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241928</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688043</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799336</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471164</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974664</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1397.714673451932</v>
       </c>
       <c r="T13" t="n">
-        <v>1306.193495155475</v>
+        <v>1397.714673451932</v>
       </c>
       <c r="U13" t="n">
-        <v>1017.064856369034</v>
+        <v>1108.58603466549</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>853.9015464596032</v>
       </c>
       <c r="W13" t="n">
-        <v>727.6476863320731</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340558</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>564.4843764226425</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.7466045204288</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1241.872136700086</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>987.1876484941987</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W16" t="n">
-        <v>987.1876484941987</v>
+        <v>972.7978770266959</v>
       </c>
       <c r="X16" t="n">
-        <v>987.1876484941987</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.3950693506686</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.0375086983734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286131</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286131</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286131</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>825.3747459653033</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3747459653033</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
         <v>527.3450129705744</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>1007.023210795543</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X22" t="n">
-        <v>1007.023210795543</v>
+        <v>877.929660728721</v>
       </c>
       <c r="Y22" t="n">
-        <v>1007.023210795543</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>268.6754855415404</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1240.863955789792</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1240.863955789792</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>951.7353170033501</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765184</v>
+        <v>951.7353170033501</v>
       </c>
       <c r="W25" t="n">
-        <v>496.6650364395578</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X25" t="n">
-        <v>268.6754855415404</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y25" t="n">
-        <v>268.6754855415404</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6209,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>2032.925401907737</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881927</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1475.129678083382</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1186.00103929694</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1186.00103929694</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W28" t="n">
-        <v>896.5838692599796</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619623</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184323</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6452,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6546,19 +6546,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1595.645765494011</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1925.508393158044</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2205.048458376741</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030893</v>
+        <v>695.1010933248432</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584489</v>
+        <v>581.9257756783071</v>
       </c>
       <c r="D31" t="n">
-        <v>452.214645427484</v>
+        <v>487.5700015473423</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264618</v>
+        <v>395.4177732463199</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>304.2886910297805</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6625,10 +6625,10 @@
         <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6643,7 +6643,7 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
         <v>1736.652680096195</v>
@@ -6652,19 +6652,19 @@
         <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1369.704507242555</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818949</v>
+        <v>1136.048202486966</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652485</v>
+        <v>963.8195168703191</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030893</v>
+        <v>820.988692873712</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,13 +6683,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,16 +6698,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6743,7 +6743,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108344</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045222</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010332</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108341</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,34 +7348,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045217</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010327</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,19 +7418,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>19.14409596997086</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>308.1251096272028</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229361</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>97.73122884869501</v>
       </c>
       <c r="T13" t="n">
-        <v>30.75201340998671</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>31.76365987933889</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>51.9031411392742</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>99.40364951451117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>107.4340315592514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>84.61811604036484</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>142.924058981117</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>52.41337076696601</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>197.9988345086137</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.879261385015951</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.38245062487697</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437406</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>21.97888096689658</v>
       </c>
     </row>
     <row r="32">
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524995</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
         <v>273720.3418163962</v>
@@ -26326,13 +26326,13 @@
         <v>273720.3418163962</v>
       </c>
       <c r="G2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163964</v>
       </c>
       <c r="H2" t="n">
         <v>273720.3418163964</v>
       </c>
       <c r="I2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="J2" t="n">
         <v>273720.3418163963</v>
@@ -26341,19 +26341,19 @@
         <v>284775.4961416894</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524989</v>
+        <v>287364.6194524993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,10 +26424,10 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007505</v>
@@ -26439,25 +26439,25 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007477</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732803</v>
+        <v>30335.5188973279</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,10 +26488,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>56588.49267316921</v>
       </c>
       <c r="D6" t="n">
-        <v>56588.49267316912</v>
+        <v>56588.49267316901</v>
       </c>
       <c r="E6" t="n">
-        <v>-351343.7522652239</v>
+        <v>-351441.2113911962</v>
       </c>
       <c r="F6" t="n">
-        <v>173816.2842116721</v>
+        <v>173718.8250856999</v>
       </c>
       <c r="G6" t="n">
-        <v>173816.284211672</v>
+        <v>173718.8250857001</v>
       </c>
       <c r="H6" t="n">
-        <v>173816.2842116723</v>
+        <v>173718.8250857001</v>
       </c>
       <c r="I6" t="n">
-        <v>173816.2842116723</v>
+        <v>173718.8250856998</v>
       </c>
       <c r="J6" t="n">
-        <v>-2606.934980920734</v>
+        <v>-2704.394106892767</v>
       </c>
       <c r="K6" t="n">
-        <v>117903.3281384168</v>
+        <v>117884.8344004824</v>
       </c>
       <c r="L6" t="n">
         <v>148971.0879342792</v>
       </c>
       <c r="M6" t="n">
-        <v>24512.9795013089</v>
+        <v>24512.97950130874</v>
       </c>
       <c r="N6" t="n">
-        <v>159313.9947351458</v>
+        <v>159313.9947351456</v>
       </c>
       <c r="O6" t="n">
         <v>159313.9947351458</v>
       </c>
       <c r="P6" t="n">
-        <v>115151.3894322999</v>
+        <v>115151.3894323003</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108346</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.2758992500986</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.6136059100018</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>33.5211145865259</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>80.90102690887653</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>221.2334947817046</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>120.1388606942403</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.2007583249313</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>125.6507156093566</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>224.1946438451373</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>185.000839820425</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>98.79519927393325</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>68.26185645105909</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.463149601477198e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.56967448873499e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-7.032208304403596e-13</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>567.6062243483295</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556256</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>343.3468637082227</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>301.507798211079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36929,7 +36929,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>588.4784392551036</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>515.2185245587276</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
